--- a/MODOT/src/test/resources/DataProvider/RenewFleet2.xlsx
+++ b/MODOT/src/test/resources/DataProvider/RenewFleet2.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE1DFB-8965-43D7-ABF8-0B0D120BD346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E9E7B-12F2-400E-A1C1-47CA58B62FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="4" activeTab="11" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
     <sheet name="AccountTab" sheetId="1" r:id="rId2"/>
-    <sheet name="AccountVerificationTab" sheetId="8" r:id="rId3"/>
-    <sheet name="FleetTab" sheetId="2" r:id="rId4"/>
-    <sheet name="DistanceTab" sheetId="10" r:id="rId5"/>
-    <sheet name="WeightGrouptab" sheetId="3" r:id="rId6"/>
-    <sheet name="VehicleTab" sheetId="4" r:id="rId7"/>
-    <sheet name="VehicleAmendTab" sheetId="11" r:id="rId8"/>
-    <sheet name="VehicleDeleteTab" sheetId="12" r:id="rId9"/>
-    <sheet name="BillingTab" sheetId="5" r:id="rId10"/>
-    <sheet name="Payment" sheetId="6" r:id="rId11"/>
-    <sheet name="inventoryTab" sheetId="7" r:id="rId12"/>
+    <sheet name="FleetTab" sheetId="2" r:id="rId3"/>
+    <sheet name="DistanceTab" sheetId="10" r:id="rId4"/>
+    <sheet name="WeightGrouptab" sheetId="3" r:id="rId5"/>
+    <sheet name="VehicleTab" sheetId="4" r:id="rId6"/>
+    <sheet name="VehicleAmendTab" sheetId="11" r:id="rId7"/>
+    <sheet name="VehicleDeleteTab" sheetId="12" r:id="rId8"/>
+    <sheet name="BillingTab" sheetId="5" r:id="rId9"/>
+    <sheet name="Payment" sheetId="6" r:id="rId10"/>
+    <sheet name="InventoryTab" sheetId="7" r:id="rId11"/>
+    <sheet name="Finance" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Account#</t>
   </si>
@@ -66,9 +66,6 @@
     <t>AccountsComments</t>
   </si>
   <si>
-    <t>Account No.</t>
-  </si>
-  <si>
     <t>Email iD</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>P - POWER UNIT</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Y - YES</t>
   </si>
   <si>
@@ -228,15 +222,6 @@
     <t>Distance tab Comments</t>
   </si>
   <si>
-    <t>Paymentamountcash</t>
-  </si>
-  <si>
-    <t>1208.53</t>
-  </si>
-  <si>
-    <t>Paymentamountcheque</t>
-  </si>
-  <si>
     <t>PaymentChequeNo</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>Inventory_Subtype</t>
   </si>
   <si>
-    <t>11AA1A</t>
-  </si>
-  <si>
     <t>FromNo</t>
   </si>
   <si>
@@ -294,9 +276,6 @@
     <t>Payment receipt</t>
   </si>
   <si>
-    <t>66000</t>
-  </si>
-  <si>
     <t>VehicleBodyType</t>
   </si>
   <si>
@@ -309,35 +288,80 @@
     <t>unladenWeight</t>
   </si>
   <si>
-    <t>4-66000</t>
-  </si>
-  <si>
     <t>Vehicle_WeightGroupNo</t>
   </si>
   <si>
     <t>CO Special Truck</t>
   </si>
   <si>
-    <t>27226</t>
-  </si>
-  <si>
-    <t>6565</t>
-  </si>
-  <si>
-    <t>65256</t>
-  </si>
-  <si>
-    <t>61800366</t>
-  </si>
-  <si>
-    <t>611156</t>
+    <t>11113</t>
+  </si>
+  <si>
+    <t>6266</t>
+  </si>
+  <si>
+    <t>6326</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6226</t>
+  </si>
+  <si>
+    <t>6286</t>
+  </si>
+  <si>
+    <t>6346</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8-26000</t>
+  </si>
+  <si>
+    <t>Type plate is not available for User: internaluser, Office Location: HQ.</t>
+  </si>
+  <si>
+    <t>HardstopMessage</t>
+  </si>
+  <si>
+    <t>NNAANA</t>
+  </si>
+  <si>
+    <t>37703</t>
+  </si>
+  <si>
+    <t>InstallmentPaymentCash</t>
+  </si>
+  <si>
+    <t>197.67</t>
+  </si>
+  <si>
+    <t>FleetNewYear</t>
+  </si>
+  <si>
+    <t>Added SuccessMessage</t>
+  </si>
+  <si>
+    <t>ENTINV06 : [I] Inventory has been added successfully.</t>
+  </si>
+  <si>
+    <t>ENTINV40 : [I] Inventory has been assigned successfully.</t>
+  </si>
+  <si>
+    <t>AssignedSuccessMessage</t>
+  </si>
+  <si>
+    <t>99CD9E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,18 +375,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -392,17 +404,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -728,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,21 +760,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -773,59 +792,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71997D60-9F47-4305-9365-2569E8403E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0865D-51BA-4EBA-8F05-EB6A1F6AB5E9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -834,114 +853,94 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0865D-51BA-4EBA-8F05-EB6A1F6AB5E9}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="34.86328125" customWidth="1"/>
+    <col min="7" max="7" width="29.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984D0D0-0845-4480-80FB-D983B0221911}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +953,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -965,7 +964,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
@@ -977,31 +976,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78689498-8977-4BE1-A3D4-C79CB81A0F96}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>27226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF704C85-D873-414A-AA0E-281E6DD1C08A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1016,54 +990,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842739D-F428-48DB-A05D-D93FC3306262}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1086,24 +1060,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1111,42 +1085,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF9E6-80A0-4CF6-9F60-DA959CA4A335}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>87</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1154,90 +1128,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>28</v>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1246,12 +1220,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05706F7-92D1-4F40-8339-433B7AA2EF90}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1259,45 +1233,111 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B25EE0-AB73-4E38-A477-2B1855380560}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>94</v>
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71997D60-9F47-4305-9365-2569E8403E09}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
